--- a/SYP - REM/Nutzwetanalyse.xlsx
+++ b/SYP - REM/Nutzwetanalyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\5CHIF\SYP - REM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F43F0D40-CD85-4799-B18B-B14A00184B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04E0803-7A02-41F6-AC9F-3165C9C6542B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAF7BF9E-C449-4722-A69C-0EA917C7E76B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21F67859-60D1-4BFF-B844-285B7A287E8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,173 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Kriterien</t>
+  </si>
+  <si>
+    <t>Rel Gewicht in %</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>Max NW</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Anbieter 1</t>
+  </si>
+  <si>
+    <t>Anbieter 2</t>
+  </si>
+  <si>
+    <t>Anbieter 3</t>
+  </si>
+  <si>
+    <t>Anbieter 4</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>NW Y1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>NW Y2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>NW Y3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>NW Y4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.4</t>
+  </si>
+  <si>
+    <t>Persönliche Präferenzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Helligkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Auflösung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Bildwiederholrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Energieeffizienzklasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Reaktionszeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Farbraum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Anschlüsse</t>
+  </si>
+  <si>
+    <t>Totale Nutzwerte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Bildschirmdiagonale</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Technische Details</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Summe:</t>
+  </si>
+  <si>
+    <t>Punkte</t>
+  </si>
+  <si>
+    <t>Gewicht</t>
+  </si>
+  <si>
+    <t>https://www.saturn.de/de/product/_samsung-c27f390fhr-2724203.html</t>
+  </si>
+  <si>
+    <t>https://www.saturn.de/de/product/_acer-nitro-qg241y-2616164.html</t>
+  </si>
+  <si>
+    <t>https://www.saturn.de/de/product/_huawei-ad80-238-zoll-238-zoll-full-hd-monitor-5-ms-reaktionszeit-75-hz-2747808.html</t>
+  </si>
+  <si>
+    <t>https://www.saturn.de/de/product/_asus-monitor-vy249he-asus-2710370.html</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +209,134 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -62,14 +344,711 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,15 +1360,857 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DB4BAB-420B-4BA6-AD22-A40B71C587D3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30703754-5A62-4570-BB9D-359D6FF21DD3}">
+  <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="5.5546875" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="105"/>
+      <c r="F3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="110"/>
+      <c r="I3" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="112"/>
+      <c r="K3" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="117"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="108"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="21">
+        <v>70</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39">
+        <f>SUM(H6:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49">
+        <f>SUM(J6:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59">
+        <f>SUM(L6:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="68"/>
+      <c r="N5" s="69">
+        <f ca="1">SUM(N6:N9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="102">
+        <f>$J32</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="F6" s="25">
+        <f>D$5*E6/100</f>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4">
+        <f>G6/10*F6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <f>I6/10*F6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12">
+        <f>K6/10*F6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="16">
+        <f ca="1">N6/10*F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="102">
+        <f t="shared" ref="E7:E9" si="0">$J33</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="F7" s="25">
+        <f t="shared" ref="F7:F9" si="1">D$5*E7/100</f>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4">
+        <f t="shared" ref="H7:H9" si="2">G7/10*F7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8">
+        <f t="shared" ref="J7:J9" si="3">I7/10*F7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12">
+        <f t="shared" ref="L7:L9" si="4">K7/10*F7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="16">
+        <f t="shared" ref="N7:N9" ca="1" si="5">N7/10*F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="102">
+        <f t="shared" si="0"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="1"/>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="102">
+        <f t="shared" si="0"/>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="1"/>
+        <v>29.166666666666671</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="103">
+        <f>SUM(E6:E9)</f>
+        <v>100</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="71"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="29">
+        <v>2</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="30">
+        <v>30</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43">
+        <f>SUM(H12:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53">
+        <f>SUM(J12:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="62"/>
+      <c r="L11" s="63">
+        <f>SUM(L12:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="72"/>
+      <c r="N11" s="73">
+        <f>SUM(N12:N15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="102">
+        <f>$J40</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F12" s="25">
+        <f>D$11*E12/100</f>
+        <v>11</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4">
+        <f>G12/10*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8">
+        <f>I12/10*F12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12">
+        <f>K12/10*F12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16">
+        <f>K12/10*F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="102">
+        <f t="shared" ref="E13:E15" si="6">$J41</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" ref="F13:F15" si="7">D$11*E13/100</f>
+        <v>9.9999999999999982</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4">
+        <f t="shared" ref="H13:H15" si="8">G13/10*F13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8">
+        <f t="shared" ref="J13:J15" si="9">I13/10*F13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12">
+        <f t="shared" ref="L13:L15" si="10">K13/10*F13</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16">
+        <f t="shared" ref="N13:N15" si="11">K13/10*F13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="102">
+        <f t="shared" si="6"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="102">
+        <f t="shared" si="6"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" si="7"/>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="104">
+        <f>SUM(E12:E15)</f>
+        <v>100</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="75"/>
+    </row>
+    <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="36">
+        <f>SUM(D5,D11)</f>
+        <v>100</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37">
+        <v>100</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="77"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+    </row>
+    <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="78"/>
+      <c r="E31" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="79"/>
+      <c r="F32" s="85">
+        <v>4</v>
+      </c>
+      <c r="G32" s="86">
+        <v>8</v>
+      </c>
+      <c r="H32" s="84">
+        <v>2</v>
+      </c>
+      <c r="I32" s="99">
+        <f>SUM(E32:H32)</f>
+        <v>14</v>
+      </c>
+      <c r="J32" s="100">
+        <f>I32/$I$36 * 100</f>
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="82">
+        <v>6</v>
+      </c>
+      <c r="F33" s="78"/>
+      <c r="G33" s="87">
+        <v>6</v>
+      </c>
+      <c r="H33" s="95">
+        <v>2</v>
+      </c>
+      <c r="I33" s="99">
+        <f t="shared" ref="I33:I35" si="12">SUM(E33:H33)</f>
+        <v>14</v>
+      </c>
+      <c r="J33" s="100">
+        <f t="shared" ref="J33:J35" si="13">I33/$I$36 * 100</f>
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="83">
+        <v>2</v>
+      </c>
+      <c r="F34" s="84">
+        <v>4</v>
+      </c>
+      <c r="G34" s="78"/>
+      <c r="H34" s="96">
+        <v>1</v>
+      </c>
+      <c r="I34" s="99">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="J34" s="100">
+        <f t="shared" si="13"/>
+        <v>11.666666666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="87">
+        <v>8</v>
+      </c>
+      <c r="F35" s="92">
+        <v>8</v>
+      </c>
+      <c r="G35" s="93">
+        <v>9</v>
+      </c>
+      <c r="H35" s="97"/>
+      <c r="I35" s="99">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="J35" s="100">
+        <f t="shared" si="13"/>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="80">
+        <f>SUM(I32:I35)</f>
+        <v>60</v>
+      </c>
+      <c r="J36" s="101">
+        <f>SUM(J32:J35)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="78"/>
+      <c r="E39" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="79"/>
+      <c r="F40" s="85">
+        <v>6</v>
+      </c>
+      <c r="G40" s="86">
+        <v>8</v>
+      </c>
+      <c r="H40" s="84">
+        <v>8</v>
+      </c>
+      <c r="I40" s="99">
+        <f>SUM(E40:H40)</f>
+        <v>22</v>
+      </c>
+      <c r="J40" s="100">
+        <f>I40/$I$36 * 100</f>
+        <v>36.666666666666664</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="82">
+        <v>4</v>
+      </c>
+      <c r="F41" s="78"/>
+      <c r="G41" s="87">
+        <v>8</v>
+      </c>
+      <c r="H41" s="95">
+        <v>8</v>
+      </c>
+      <c r="I41" s="99">
+        <f t="shared" ref="I41:I43" si="14">SUM(E41:H41)</f>
+        <v>20</v>
+      </c>
+      <c r="J41" s="100">
+        <f t="shared" ref="J41:J43" si="15">I41/$I$36 * 100</f>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="83">
+        <v>2</v>
+      </c>
+      <c r="F42" s="84">
+        <v>2</v>
+      </c>
+      <c r="G42" s="78"/>
+      <c r="H42" s="96">
+        <v>4</v>
+      </c>
+      <c r="I42" s="99">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="J42" s="100">
+        <f t="shared" si="15"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="87">
+        <v>2</v>
+      </c>
+      <c r="F43" s="92">
+        <v>2</v>
+      </c>
+      <c r="G43" s="93">
+        <v>6</v>
+      </c>
+      <c r="H43" s="97"/>
+      <c r="I43" s="99">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="J43" s="100">
+        <f t="shared" si="15"/>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="80">
+        <f>SUM(I40:I43)</f>
+        <v>60</v>
+      </c>
+      <c r="J44" s="101">
+        <f>SUM(J40:J43)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D25" r:id="rId1" xr:uid="{5D217BDB-47CE-427E-B85F-0F1682A0EC99}"/>
+    <hyperlink ref="D26" r:id="rId2" xr:uid="{5E27C609-12D6-43C7-8ED8-9ABE512DC347}"/>
+    <hyperlink ref="D27" r:id="rId3" xr:uid="{4F5765DD-EC93-4ED2-AE29-C4F5C25B9595}"/>
+    <hyperlink ref="D28" r:id="rId4" xr:uid="{CD63ACB5-FA2C-4C0C-8DE9-FC568CE2B535}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>